--- a/2020/CDC Light/2020CDCLTs.xlsx
+++ b/2020/CDC Light/2020CDCLTs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="138">
   <si>
     <t>FID</t>
   </si>
@@ -884,7 +884,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2100" topLeftCell="A8" activePane="bottomLeft"/>
       <selection activeCell="CV2" sqref="CV2"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8374,6 +8374,24 @@
       </c>
     </row>
     <row r="26" spans="1:99" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7">
+        <v>29.905083000000001</v>
+      </c>
+      <c r="C26" s="7">
+        <v>-89.965639999999993</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="19">
+        <v>43893</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="G26" s="11">
         <v>0</v>
       </c>
@@ -8396,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="11">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O26" s="11">
         <v>0</v>
@@ -8414,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="11">
         <v>0</v>
@@ -8456,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="11">
         <v>0</v>
@@ -8474,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO26" s="11">
         <v>0</v>
@@ -8639,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="CQ26" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR26" s="11">
         <v>0</v>
@@ -8655,6 +8673,24 @@
       </c>
     </row>
     <row r="27" spans="1:99" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6">
+        <v>30.016182000000001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-89.925332999999995</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="19">
+        <v>43893</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="G27" s="11">
         <v>0</v>
       </c>
@@ -8677,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O27" s="11">
         <v>0</v>
@@ -8695,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27" s="11">
         <v>0</v>
@@ -8755,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="11">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AO27" s="11">
         <v>0</v>
@@ -8920,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="CQ27" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CR27" s="11">
         <v>0</v>
@@ -8936,6 +8972,24 @@
       </c>
     </row>
     <row r="28" spans="1:99" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7">
+        <v>30.128882999999998</v>
+      </c>
+      <c r="C28" s="7">
+        <v>-89.867455000000007</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="19">
+        <v>43893</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G28" s="11">
         <v>0</v>
       </c>
@@ -8958,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" s="11">
         <v>0</v>
@@ -8973,10 +9027,10 @@
         <v>0</v>
       </c>
       <c r="S28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="11">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="U28" s="11">
         <v>0</v>
@@ -9018,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="11">
         <v>0</v>
@@ -9033,10 +9087,10 @@
         <v>0</v>
       </c>
       <c r="AM28" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN28" s="11">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="AO28" s="11">
         <v>0</v>
@@ -9120,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ28" s="11">
         <v>0</v>
@@ -9201,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="CQ28" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CR28" s="11">
         <v>0</v>
@@ -9217,6 +9271,24 @@
       </c>
     </row>
     <row r="29" spans="1:99" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6">
+        <v>30.065435999999998</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-89.813597999999999</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="19">
+        <v>43893</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G29" s="11">
         <v>0</v>
       </c>
@@ -9257,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U29" s="11">
         <v>0</v>
@@ -9299,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="AH29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="11">
         <v>0</v>
@@ -9317,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="11">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AO29" s="11">
         <v>0</v>
@@ -9482,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="CQ29" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CR29" s="11">
         <v>0</v>
@@ -18777,12 +18849,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV88"/>
+  <dimension ref="A1:CV95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2100" topLeftCell="A77" activePane="bottomLeft"/>
+      <pane ySplit="2100" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="A39" sqref="A39"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44838,6 +44910,2078 @@
         <v>0</v>
       </c>
       <c r="CU88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:100" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="6">
+        <v>29.995996000000002</v>
+      </c>
+      <c r="C89" s="6">
+        <v>-90.069033000000005</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11">
+        <v>1</v>
+      </c>
+      <c r="I89" s="11">
+        <v>0</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0</v>
+      </c>
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11">
+        <v>0</v>
+      </c>
+      <c r="M89" s="11">
+        <v>0</v>
+      </c>
+      <c r="N89" s="11">
+        <v>12</v>
+      </c>
+      <c r="O89" s="11">
+        <v>0</v>
+      </c>
+      <c r="P89" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>0</v>
+      </c>
+      <c r="R89" s="11">
+        <v>0</v>
+      </c>
+      <c r="S89" s="11">
+        <v>0</v>
+      </c>
+      <c r="T89" s="11">
+        <v>34</v>
+      </c>
+      <c r="U89" s="11">
+        <v>0</v>
+      </c>
+      <c r="V89" s="11">
+        <v>0</v>
+      </c>
+      <c r="W89" s="11">
+        <v>0</v>
+      </c>
+      <c r="X89" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM89" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN89" s="11">
+        <v>99</v>
+      </c>
+      <c r="AO89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH89" s="11">
+        <v>3</v>
+      </c>
+      <c r="BI89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BN89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BO89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BP89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BS89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BT89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BU89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BX89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BY89" s="11">
+        <v>0</v>
+      </c>
+      <c r="BZ89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CA89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CB89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CC89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CD89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CE89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CF89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CG89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CH89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CI89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CJ89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CK89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CL89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CM89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CN89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CO89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CP89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CQ89" s="11">
+        <v>3</v>
+      </c>
+      <c r="CR89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CS89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CT89" s="11">
+        <v>0</v>
+      </c>
+      <c r="CU89" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:100" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="6">
+        <v>29.995996000000002</v>
+      </c>
+      <c r="C90" s="6">
+        <v>-90.069033000000005</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11">
+        <v>0</v>
+      </c>
+      <c r="N90" s="11">
+        <v>34</v>
+      </c>
+      <c r="O90" s="11">
+        <v>0</v>
+      </c>
+      <c r="P90" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="11">
+        <v>0</v>
+      </c>
+      <c r="R90" s="11">
+        <v>0</v>
+      </c>
+      <c r="S90" s="11">
+        <v>0</v>
+      </c>
+      <c r="T90" s="11">
+        <v>23</v>
+      </c>
+      <c r="U90" s="11">
+        <v>0</v>
+      </c>
+      <c r="V90" s="11">
+        <v>0</v>
+      </c>
+      <c r="W90" s="11">
+        <v>0</v>
+      </c>
+      <c r="X90" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN90" s="11">
+        <v>64</v>
+      </c>
+      <c r="AO90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH90" s="11">
+        <v>10</v>
+      </c>
+      <c r="BI90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BN90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BO90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BP90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BS90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BT90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BU90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BX90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BY90" s="11">
+        <v>0</v>
+      </c>
+      <c r="BZ90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CA90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CB90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CC90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CD90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CE90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CF90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CG90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CH90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CI90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CJ90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CK90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CL90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CM90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CN90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CO90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CP90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CQ90" s="11">
+        <v>3</v>
+      </c>
+      <c r="CR90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CS90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CT90" s="11">
+        <v>0</v>
+      </c>
+      <c r="CU90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:100" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="6">
+        <v>29.995996000000002</v>
+      </c>
+      <c r="C91" s="6">
+        <v>-90.069033000000005</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11">
+        <v>0</v>
+      </c>
+      <c r="M91" s="11">
+        <v>0</v>
+      </c>
+      <c r="N91" s="11">
+        <v>53</v>
+      </c>
+      <c r="O91" s="11">
+        <v>0</v>
+      </c>
+      <c r="P91" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="11">
+        <v>0</v>
+      </c>
+      <c r="R91" s="11">
+        <v>0</v>
+      </c>
+      <c r="S91" s="11">
+        <v>0</v>
+      </c>
+      <c r="T91" s="11">
+        <v>69</v>
+      </c>
+      <c r="U91" s="11">
+        <v>0</v>
+      </c>
+      <c r="V91" s="11">
+        <v>0</v>
+      </c>
+      <c r="W91" s="11">
+        <v>0</v>
+      </c>
+      <c r="X91" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="11">
+        <v>99</v>
+      </c>
+      <c r="AO91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH91" s="11">
+        <v>17</v>
+      </c>
+      <c r="BI91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BN91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BO91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BP91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BS91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BT91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BU91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BX91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BY91" s="11">
+        <v>0</v>
+      </c>
+      <c r="BZ91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CA91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CB91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CC91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CD91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CE91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CF91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CG91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CH91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CI91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CJ91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CK91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CL91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CM91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CN91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CO91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CP91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CQ91" s="11">
+        <v>2</v>
+      </c>
+      <c r="CR91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CS91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CT91" s="11">
+        <v>0</v>
+      </c>
+      <c r="CU91" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:100" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B92" s="6">
+        <v>29.995996000000002</v>
+      </c>
+      <c r="C92" s="6">
+        <v>-90.069033000000005</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
+        <v>0</v>
+      </c>
+      <c r="M92" s="11">
+        <v>0</v>
+      </c>
+      <c r="N92" s="11">
+        <v>41</v>
+      </c>
+      <c r="O92" s="11">
+        <v>0</v>
+      </c>
+      <c r="P92" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="11">
+        <v>0</v>
+      </c>
+      <c r="R92" s="11">
+        <v>0</v>
+      </c>
+      <c r="S92" s="11">
+        <v>1</v>
+      </c>
+      <c r="T92" s="11">
+        <v>90</v>
+      </c>
+      <c r="U92" s="11">
+        <v>0</v>
+      </c>
+      <c r="V92" s="11">
+        <v>0</v>
+      </c>
+      <c r="W92" s="11">
+        <v>0</v>
+      </c>
+      <c r="X92" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM92" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN92" s="11">
+        <v>161</v>
+      </c>
+      <c r="AO92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT92" s="11">
+        <v>2</v>
+      </c>
+      <c r="AU92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH92" s="11">
+        <v>54</v>
+      </c>
+      <c r="BI92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BN92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BO92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BP92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BS92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BT92" s="11">
+        <v>2</v>
+      </c>
+      <c r="BU92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BX92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BY92" s="11">
+        <v>0</v>
+      </c>
+      <c r="BZ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CA92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CB92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CC92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CD92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CE92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CF92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CG92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CH92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CI92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CJ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CK92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CL92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CM92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CN92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CO92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CP92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CQ92" s="11">
+        <v>9</v>
+      </c>
+      <c r="CR92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CS92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CT92" s="11">
+        <v>0</v>
+      </c>
+      <c r="CU92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:100" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="6">
+        <v>29.995996000000002</v>
+      </c>
+      <c r="C93" s="6">
+        <v>-90.069033000000005</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0</v>
+      </c>
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11">
+        <v>0</v>
+      </c>
+      <c r="M93" s="11">
+        <v>0</v>
+      </c>
+      <c r="N93" s="11">
+        <v>31</v>
+      </c>
+      <c r="O93" s="11">
+        <v>0</v>
+      </c>
+      <c r="P93" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="11">
+        <v>0</v>
+      </c>
+      <c r="R93" s="11">
+        <v>0</v>
+      </c>
+      <c r="S93" s="11">
+        <v>0</v>
+      </c>
+      <c r="T93" s="11">
+        <v>24</v>
+      </c>
+      <c r="U93" s="11">
+        <v>0</v>
+      </c>
+      <c r="V93" s="11">
+        <v>0</v>
+      </c>
+      <c r="W93" s="11">
+        <v>0</v>
+      </c>
+      <c r="X93" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="11">
+        <v>91</v>
+      </c>
+      <c r="AO93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BI93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BN93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BO93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BP93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BS93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BT93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BU93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BX93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BY93" s="11">
+        <v>0</v>
+      </c>
+      <c r="BZ93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CA93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CB93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CC93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CD93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CE93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CF93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CG93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CH93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CI93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CJ93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CK93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CL93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CM93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CN93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CO93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CP93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CQ93" s="11">
+        <v>5</v>
+      </c>
+      <c r="CR93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CS93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CT93" s="11">
+        <v>0</v>
+      </c>
+      <c r="CU93" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:100" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B94" s="6">
+        <v>29.995996000000002</v>
+      </c>
+      <c r="C94" s="6">
+        <v>-90.069033000000005</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
+        <v>0</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <v>48</v>
+      </c>
+      <c r="O94" s="11">
+        <v>0</v>
+      </c>
+      <c r="P94" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="11">
+        <v>0</v>
+      </c>
+      <c r="R94" s="11">
+        <v>0</v>
+      </c>
+      <c r="S94" s="11">
+        <v>0</v>
+      </c>
+      <c r="T94" s="11">
+        <v>152</v>
+      </c>
+      <c r="U94" s="11">
+        <v>0</v>
+      </c>
+      <c r="V94" s="11">
+        <v>0</v>
+      </c>
+      <c r="W94" s="11">
+        <v>0</v>
+      </c>
+      <c r="X94" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="11">
+        <v>202</v>
+      </c>
+      <c r="AO94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS94" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH94" s="11">
+        <v>25</v>
+      </c>
+      <c r="BI94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BN94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BO94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BP94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BS94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BT94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BU94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BX94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BY94" s="11">
+        <v>0</v>
+      </c>
+      <c r="BZ94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CA94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CB94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CC94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CD94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CE94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CF94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CG94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CH94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CI94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CJ94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CK94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CL94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CM94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CN94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CO94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CP94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CQ94" s="11">
+        <v>5</v>
+      </c>
+      <c r="CR94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CS94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CT94" s="11">
+        <v>0</v>
+      </c>
+      <c r="CU94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:100" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B95" s="6">
+        <v>29.995996000000002</v>
+      </c>
+      <c r="C95" s="6">
+        <v>-90.069033000000005</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
+        <v>0</v>
+      </c>
+      <c r="L95" s="11">
+        <v>0</v>
+      </c>
+      <c r="M95" s="11">
+        <v>0</v>
+      </c>
+      <c r="N95" s="11">
+        <v>18</v>
+      </c>
+      <c r="O95" s="11">
+        <v>0</v>
+      </c>
+      <c r="P95" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="11">
+        <v>0</v>
+      </c>
+      <c r="R95" s="11">
+        <v>0</v>
+      </c>
+      <c r="S95" s="11">
+        <v>0</v>
+      </c>
+      <c r="T95" s="11">
+        <v>28</v>
+      </c>
+      <c r="U95" s="11">
+        <v>0</v>
+      </c>
+      <c r="V95" s="11">
+        <v>0</v>
+      </c>
+      <c r="W95" s="11">
+        <v>0</v>
+      </c>
+      <c r="X95" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="11">
+        <v>27</v>
+      </c>
+      <c r="AO95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH95" s="11">
+        <v>5</v>
+      </c>
+      <c r="BI95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BN95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BO95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BP95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BS95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BT95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BU95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BX95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BY95" s="11">
+        <v>0</v>
+      </c>
+      <c r="BZ95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CA95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CB95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CC95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CD95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CE95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CF95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CG95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CH95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CI95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CJ95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CK95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CL95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CM95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CN95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CO95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CP95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CQ95" s="11">
+        <v>4</v>
+      </c>
+      <c r="CR95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CS95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CT95" s="11">
+        <v>0</v>
+      </c>
+      <c r="CU95" s="11">
         <v>0</v>
       </c>
     </row>
